--- a/docs/Population.xlsx
+++ b/docs/Population.xlsx
@@ -2733,8 +2733,9 @@
   <dimension ref="A1:BE763"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="K370" sqref="K370"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J284" sqref="J284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13161,7 +13162,7 @@
         <v>5</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H287" s="157">
         <v>5</v>

--- a/docs/Population.xlsx
+++ b/docs/Population.xlsx
@@ -4,8 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-8" yWindow="14198" windowWidth="17295" windowHeight="14220" activeTab="1"/>
-    <workbookView xWindow="-8" yWindow="-8" windowWidth="17295" windowHeight="14205"/>
+    <workbookView xWindow="-8" yWindow="14198" windowWidth="17295" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -2732,9 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE763"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScaleNormal="100" workbookViewId="1">
-      <selection activeCell="K370" sqref="K370"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13161,7 +13159,7 @@
         <v>5</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H287" s="157">
         <v>5</v>
@@ -30190,13 +30188,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
     <col min="10" max="11" width="34.1328125" customWidth="1"/>
     <col min="12" max="12" width="34.1328125" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="34.1328125" customWidth="1"/>
@@ -30717,7 +30716,9 @@
       <c r="M24" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="N24" s="82"/>
+      <c r="N24" s="82">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="79" t="s">
@@ -30750,7 +30751,9 @@
       <c r="M25" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="N25" s="82"/>
+      <c r="N25" s="82">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="79" t="s">
@@ -30783,7 +30786,9 @@
       <c r="M26" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="N26" s="82"/>
+      <c r="N26" s="82">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B27" s="79" t="s">
@@ -30816,7 +30821,9 @@
       <c r="M27" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="N27" s="82"/>
+      <c r="N27" s="82">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B28" s="79" t="s">
@@ -30851,7 +30858,9 @@
       <c r="M28" s="82" t="s">
         <v>220</v>
       </c>
-      <c r="N28" s="82"/>
+      <c r="N28" s="82">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B29" s="79" t="s">
@@ -30886,7 +30895,9 @@
       <c r="M29" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="N29" s="82"/>
+      <c r="N29" s="82">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B30" s="79" t="s">
@@ -30913,7 +30924,9 @@
       <c r="M30" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="N30" s="82"/>
+      <c r="N30" s="82">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B31" s="79" t="s">
@@ -30938,7 +30951,9 @@
       <c r="M31" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="N31" s="82"/>
+      <c r="N31" s="82">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B32" s="79" t="s">
@@ -30963,7 +30978,9 @@
       <c r="M32" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="N32" s="82"/>
+      <c r="N32" s="82">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B33" s="79" t="s">
@@ -30988,7 +31005,9 @@
       <c r="M33" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="N33" s="82"/>
+      <c r="N33" s="82">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="79" t="s">
@@ -31011,7 +31030,9 @@
       <c r="M34" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="N34" s="82"/>
+      <c r="N34" s="82">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B35" s="79" t="s">
@@ -31034,7 +31055,9 @@
       <c r="M35" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="N35" s="82"/>
+      <c r="N35" s="82">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B36" s="79" t="s">
@@ -31057,7 +31080,9 @@
       <c r="M36" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="N36" s="82"/>
+      <c r="N36" s="82">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B37" s="79" t="s">
@@ -31080,7 +31105,9 @@
       <c r="M37" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="N37" s="82"/>
+      <c r="N37" s="82">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B38" s="79"/>
@@ -31095,7 +31122,10 @@
       <c r="K38" s="79"/>
       <c r="L38" s="79"/>
       <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
+      <c r="N38" s="78">
+        <f>AVERAGE(N24:N37)</f>
+        <v>6.6428571428571432</v>
+      </c>
     </row>
     <row r="39" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="79" t="s">
@@ -32751,7 +32781,6 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -33358,7 +33387,6 @@
   <dimension ref="A1:BE750"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
